--- a/CRC for Fish.xlsx
+++ b/CRC for Fish.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +171,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -850,7 +856,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
